--- a/Etc/Excel/task.xlsx
+++ b/Etc/Excel/task.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チーム" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
   <si>
     <t>鵜</t>
     <rPh sb="0" eb="1">
@@ -177,13 +177,6 @@
     <t>尾崎</t>
     <rPh sb="0" eb="2">
       <t>オザキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -865,7 +858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -972,13 +965,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,21 +1127,12 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,21 +1160,9 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1159,6 +1199,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,30 +1221,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,6 +1233,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,22 +1595,22 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="F5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1564,36 +1637,36 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1606,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,458 +1695,432 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="28">
-        <v>45005</v>
-      </c>
-      <c r="C2" s="29" t="s">
+        <v>45007</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="55">
+        <v>5</v>
+      </c>
+      <c r="E2" s="66">
+        <f>SUM(D2:D10)</f>
+        <v>45</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29">
-        <v>5</v>
-      </c>
-      <c r="E2" s="66">
-        <f>SUM(D2:D13)</f>
-        <v>60</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="30">
-        <v>45007</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="29">
+        <v>45012</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="53">
+        <v>5</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="29">
+        <v>45013</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="53">
+        <v>5</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="29">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="53">
+        <v>5</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="29">
+        <v>45015</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31">
-        <v>5</v>
-      </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="30">
-        <v>45008</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="D6" s="65">
+        <v>5</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="29">
+        <v>45019</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31">
-        <v>5</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="30">
-        <v>45012</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="D7" s="20">
+        <v>5</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="69"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="29">
+        <v>45020</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31">
-        <v>5</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="30">
-        <v>45013</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="D8" s="78">
+        <v>5</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="29">
+        <v>45021</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="31">
-        <v>5</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="30">
-        <v>45014</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="D9" s="53">
+        <v>5</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="39">
+        <v>45022</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="54">
+        <v>5</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="70">
+        <v>45027</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="71">
+        <v>5</v>
+      </c>
+      <c r="E11" s="74">
+        <f>SUM(D11:D24)</f>
+        <v>70</v>
+      </c>
+      <c r="F11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="31">
-        <v>5</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="30">
-        <v>45015</v>
-      </c>
-      <c r="C8" s="31" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="70">
+        <v>45028</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="71">
+        <v>5</v>
+      </c>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="30">
+        <v>45029</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="56">
+        <v>5</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="30">
+        <v>45033</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31">
-        <v>5</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="30">
-        <v>45019</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="D14" s="56">
+        <v>5</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="72"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="30">
+        <v>45034</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="31">
-        <v>5</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="30">
-        <v>45020</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D15" s="56">
+        <v>5</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="72"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="30">
+        <v>45035</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="31">
-        <v>5</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="30">
-        <v>45021</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="31">
-        <v>5</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="30">
-        <v>45022</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="D16" s="56">
+        <v>5</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="72"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="30">
+        <v>45036</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="56">
+        <v>5</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="72"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="30">
+        <v>45040</v>
+      </c>
+      <c r="C18" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="31">
-        <v>5</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="42">
-        <v>45027</v>
-      </c>
-      <c r="C13" s="43" t="s">
+      <c r="D18" s="56">
+        <v>5</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="30">
+        <v>45041</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="56">
+        <v>5</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="72"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="30">
+        <v>45042</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="43">
-        <v>5</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="44">
-        <v>45028</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="45">
-        <v>5</v>
-      </c>
-      <c r="E14" s="70">
-        <f>SUM(D14:D26)</f>
-        <v>65</v>
-      </c>
-      <c r="F14" s="67" t="s">
+      <c r="D20" s="56">
+        <v>5</v>
+      </c>
+      <c r="E20" s="74"/>
+      <c r="F20" s="72"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="30">
+        <v>45043</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="56">
+        <v>5</v>
+      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="72"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="30">
+        <v>45054</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="56">
+        <v>5</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="72"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="30">
+        <v>45055</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="56">
+        <v>5</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="72"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="40">
+        <v>45056</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="57">
+        <v>5</v>
+      </c>
+      <c r="E24" s="75"/>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="41">
+        <v>45062</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="42">
+        <v>5</v>
+      </c>
+      <c r="E25" s="64">
+        <f>SUM(D25:D28)</f>
+        <v>20</v>
+      </c>
+      <c r="F25" s="61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="32">
-        <v>45029</v>
-      </c>
-      <c r="C15" s="33" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="31">
+        <v>45063</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="32">
+        <v>5</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="31">
+        <v>45068</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="33">
-        <v>5</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="32">
-        <v>45033</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="D27" s="32">
+        <v>5</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="43">
+        <v>45069</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="33">
-        <v>5</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="32">
-        <v>45034</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="D28" s="44">
+        <v>5</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="37">
+        <v>45070</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="33">
-        <v>5</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="32">
-        <v>45035</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="33">
-        <v>5</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="32">
-        <v>45036</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="33">
-        <v>5</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="32">
-        <v>45040</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="D29" s="38">
+        <v>5</v>
+      </c>
+      <c r="E29" s="58">
+        <f>SUM(D29:D31)</f>
+        <v>15</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="33">
+        <v>45076</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="33">
-        <v>5</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="32">
-        <v>45041</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="D30" s="34">
+        <v>5</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="35">
+        <v>45077</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="33">
-        <v>5</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="32">
-        <v>45042</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="33">
-        <v>5</v>
-      </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="32">
-        <v>45043</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="33">
-        <v>5</v>
-      </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="32">
-        <v>45054</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="33">
-        <v>5</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="32">
-        <v>45055</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="33">
-        <v>5</v>
-      </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="46">
-        <v>45056</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="47">
-        <v>5</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="48">
-        <v>45062</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="49">
-        <v>5</v>
-      </c>
-      <c r="E27" s="74">
-        <f>SUM(D27:D30)</f>
-        <v>20</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="34">
-        <v>45063</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="35">
-        <v>5</v>
-      </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="34">
-        <v>45068</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="35">
-        <v>5</v>
-      </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="50">
-        <v>45069</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="51">
-        <v>5</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="40">
-        <v>45070</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="41">
-        <v>5</v>
-      </c>
-      <c r="E31" s="60">
-        <f>SUM(D31:D33)</f>
-        <v>15</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="D31" s="36">
+        <v>5</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="36">
-        <v>45076</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="37">
-        <v>5</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="38">
-        <v>45077</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="39">
-        <v>5</v>
-      </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D34" s="26">
-        <f>SUM(D2:D33)</f>
-        <v>160</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="D32" s="26">
+        <f>SUM(D2:D31)</f>
+        <v>150</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="E2:E13"/>
-    <mergeCell ref="F14:F26"/>
-    <mergeCell ref="E14:E26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E11:E24"/>
+    <mergeCell ref="F11:F24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2102,194 +2149,194 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="14">
         <v>15</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="56">
+      <c r="D10" s="49">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+        <v>83</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="56">
+      <c r="D11" s="49">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+        <v>83</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2304,42 +2351,42 @@
     </row>
     <row r="14" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="14">
         <v>3</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="14">
         <v>5</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2348,70 +2395,70 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2">
         <v>4</v>
@@ -2420,38 +2467,38 @@
     </row>
     <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="B22" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -2460,16 +2507,16 @@
         <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
@@ -2482,26 +2529,26 @@
     </row>
     <row r="25" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -2514,172 +2561,172 @@
     </row>
     <row r="27" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="4">
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="D29" s="4">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
@@ -2700,10 +2747,10 @@
     </row>
     <row r="39" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="14">
         <v>5</v>
@@ -2716,26 +2763,26 @@
     </row>
     <row r="40" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="14">
         <v>3</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="14">
         <v>3</v>
@@ -2756,28 +2803,28 @@
     </row>
     <row r="43" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -2790,26 +2837,26 @@
     </row>
     <row r="45" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -2822,160 +2869,160 @@
     </row>
     <row r="47" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="5">
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="5">
         <v>5</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="D50" s="5">
         <v>5</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="5">
         <v>10</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="5">
         <v>10</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" s="5">
         <v>10</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="5">
         <v>10</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
     <row r="56" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="14">
         <v>20</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
@@ -2996,6 +3043,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010092E25CFB0F01E94CAA64A9F82015DE04" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e0441ece3e0e211fad7aec02bd44f9e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9aaa2829-13f4-4386-8c7c-25caccd2f50b" xmlns:ns3="c15005df-6716-4d81-a1c8-8dc612a2f3b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9054c4e06be9b98467654ed762880a3a" ns2:_="" ns3:_="">
     <xsd:import namespace="9aaa2829-13f4-4386-8c7c-25caccd2f50b"/>
@@ -3206,15 +3262,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3226,6 +3273,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED976C6-2395-4EE3-987F-9D86E810FCFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F332AD-1A47-4437-8CF4-29BA2DD52EE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3244,27 +3299,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED976C6-2395-4EE3-987F-9D86E810FCFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDD7B32-7789-45F5-A3FA-F2672BFEB450}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="9aaa2829-13f4-4386-8c7c-25caccd2f50b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="c15005df-6716-4d81-a1c8-8dc612a2f3b9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>